--- a/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/Table17.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb161/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb161/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E1D212-7717-0443-8473-4E3F7FAEDA9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D7E7A-66BE-594F-B81B-27937FDBC42D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23900" yWindow="460" windowWidth="18200" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="58">
   <si>
     <t>Princeton</t>
   </si>
@@ -568,14 +568,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A58" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1985,8 +1984,11 @@
       </c>
     </row>
     <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B102" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C102" s="2">
         <v>17070709</v>
